--- a/tut05/output/0401EE34.xlsx
+++ b/tut05/output/0401EE34.xlsx
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semester wise credit_of_a_course Taken</t>
+          <t>Semester wise credit Taken</t>
         </is>
       </c>
       <c r="B5" t="n">
